--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>399383.5293367546</v>
+        <v>450275.6437737596</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8547013.059513932</v>
+        <v>8636206.831769034</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8673692.685730742</v>
+        <v>8627903.240604853</v>
       </c>
     </row>
     <row r="11">
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>165.1725371760942</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663195</v>
+        <v>129.3420634549346</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760942</v>
+        <v>106.5671510266612</v>
       </c>
     </row>
     <row r="4">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443403</v>
+        <v>21.41405905276474</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.396723986041178</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>81.59093052713874</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663197</v>
+        <v>65.31103090874895</v>
       </c>
     </row>
     <row r="6">
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>57.26156774002983</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20.10332478271044</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.00792621918457</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,19 +1028,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="U6" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.43383855780554</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>39.70122005611995</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>116.8405921356966</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663195</v>
+        <v>187.52558716632</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15.40229248514497</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>10.21499926102408</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.21594625443404</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>72.57171105914853</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>157.4775982853342</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>75.94848555066351</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>53.54735467376837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56.95878470060122</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>286.7943005364783</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>127.6752559270057</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>150.3013276789176</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>299.3798747282129</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>310.4847784432044</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247586</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>121.1745395272858</v>
       </c>
       <c r="Y19" t="n">
-        <v>20.95866062610893</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>157.4513740875562</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>166.9904644001996</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>127.6752559270064</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5074645095042</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>148.7118207940809</v>
+        <v>148.6151831671111</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247742</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.95866062610961</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>127.6752559270063</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>125.5207888145555</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>37.28707743115443</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851092</v>
       </c>
       <c r="I27" t="n">
         <v>18.81721868247742</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>15.31548816222213</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>372.3626467544732</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>28.93382893561953</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>115.842527194377</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>88.89700561060572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>170.2563765329858</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>218.3799969300113</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -3088,16 +3088,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>58.28185552386356</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>63.36372471879526</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>131.05739124507</v>
+        <v>279.9290008945214</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>53.54735467376837</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.0880274467727</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>334.9753613846887</v>
+        <v>275.5422451161535</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>168.4013722874437</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>102.0660356638778</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>103.6708604288276</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3808,7 +3808,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247811</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>126.6623413033685</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.2506815819185</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>57.92518451681224</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>102.8695072550971</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>140.4148930988792</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.6770952877671</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678483</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058916</v>
+        <v>53.10181779183017</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079178</v>
+        <v>141.3070323458395</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644746</v>
+        <v>271.1217663066255</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123817</v>
+        <v>407.6508467588563</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985568</v>
+        <v>523.2361246735306</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020249</v>
+        <v>587.3844843548346</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="T2" t="n">
-        <v>583.2614020227585</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="U2" t="n">
-        <v>583.2614020227585</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="V2" t="n">
-        <v>393.8416170062742</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="W2" t="n">
-        <v>204.4218319897899</v>
+        <v>142.396238631475</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330556</v>
+        <v>183.0820669769775</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330556</v>
+        <v>183.0820669769775</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330556</v>
+        <v>34.75265173585764</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>12.97238670821021</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772641</v>
+        <v>112.5663946836087</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140234</v>
+        <v>248.144772617289</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546589</v>
+        <v>393.5224324951106</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476334</v>
+        <v>511.7941057756093</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017045</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652779</v>
+        <v>587.3844843548345</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652779</v>
+        <v>439.0550691137147</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652779</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652779</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487936</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="W3" t="n">
-        <v>371.2627786323093</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="X3" t="n">
-        <v>181.842993615825</v>
+        <v>290.7256538725949</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330556</v>
+        <v>183.0820669769775</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230161</v>
+        <v>14.1259580354324</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170693</v>
+        <v>19.89179156510269</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396299</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828943</v>
+        <v>33.37805236665703</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330556</v>
+        <v>11.74768968709669</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>210.8831693494277</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="C5" t="n">
-        <v>210.8831693494277</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="D5" t="n">
-        <v>210.8831693494277</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="E5" t="n">
-        <v>210.8831693494277</v>
+        <v>350.2767894860247</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897901</v>
+        <v>181.8096918109455</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159059007</v>
+        <v>64.08111238184307</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>163.9284927306049</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>306.6973793432473</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>456.390224180391</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602026</v>
+        <v>659.1628932295217</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652789</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823969</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="T5" t="n">
-        <v>589.7227393823969</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="U5" t="n">
-        <v>589.7227393823969</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="V5" t="n">
-        <v>589.7227393823969</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="W5" t="n">
-        <v>589.7227393823969</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="X5" t="n">
-        <v>589.7227393823969</v>
+        <v>584.7146254527695</v>
       </c>
       <c r="Y5" t="n">
-        <v>400.3029543659123</v>
+        <v>518.7438871611039</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181.8429936158251</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="C6" t="n">
-        <v>181.8429936158251</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="D6" t="n">
-        <v>181.8429936158251</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="E6" t="n">
-        <v>181.8429936158251</v>
+        <v>272.3555440289836</v>
       </c>
       <c r="F6" t="n">
-        <v>35.30843564271007</v>
+        <v>272.3555440289836</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330558</v>
+        <v>134.7775669830639</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>32.54251960979008</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>59.33472114872545</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>167.499352853669</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>313.0792444295232</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>476.9208474646505</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>604.5841099877839</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017056</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652789</v>
+        <v>667.1297067933136</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652789</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="U6" t="n">
-        <v>560.6825636487943</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="V6" t="n">
-        <v>371.2627786323097</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="W6" t="n">
-        <v>181.8429936158251</v>
+        <v>498.6626091182344</v>
       </c>
       <c r="X6" t="n">
-        <v>181.8429936158251</v>
+        <v>330.1955114431552</v>
       </c>
       <c r="Y6" t="n">
-        <v>181.8429936158251</v>
+        <v>330.1955114431552</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230163</v>
+        <v>20.64084305584018</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170695</v>
+        <v>31.59410626612424</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396302</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="O7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="P7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="R7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="S7" t="n">
-        <v>67.74542702828946</v>
+        <v>50.14445126496278</v>
       </c>
       <c r="T7" t="n">
-        <v>67.74542702828946</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="U7" t="n">
-        <v>67.74542702828946</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330558</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>322.4426321268572</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="C8" t="n">
-        <v>322.4426321268572</v>
+        <v>520.5803211678659</v>
       </c>
       <c r="D8" t="n">
-        <v>322.4426321268572</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="E8" t="n">
-        <v>322.4426321268572</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897899</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330556</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330556</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>80.8121315905891</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079179</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644747</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123819</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O8" t="n">
-        <v>649.484525998557</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P8" t="n">
-        <v>734.461172602025</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.102348665278</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R8" t="n">
-        <v>672.2420264262236</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S8" t="n">
-        <v>511.8624171433415</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T8" t="n">
-        <v>322.4426321268572</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U8" t="n">
-        <v>322.4426321268572</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="V8" t="n">
-        <v>322.4426321268572</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="W8" t="n">
-        <v>322.4426321268572</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="X8" t="n">
-        <v>322.4426321268572</v>
+        <v>560.6825636487952</v>
       </c>
       <c r="Y8" t="n">
-        <v>322.4426321268572</v>
+        <v>560.6825636487952</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330556</v>
+        <v>571.5688305734704</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330556</v>
+        <v>571.5688305734704</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330556</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330556</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330556</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330556</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772646</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017051</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652784</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R9" t="n">
-        <v>734.5444774681623</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S9" t="n">
-        <v>583.2614020227586</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T9" t="n">
-        <v>393.8416170062743</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U9" t="n">
-        <v>393.8416170062743</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V9" t="n">
-        <v>204.4218319897899</v>
+        <v>750.10234866528</v>
       </c>
       <c r="W9" t="n">
-        <v>15.00204697330556</v>
+        <v>750.10234866528</v>
       </c>
       <c r="X9" t="n">
-        <v>15.00204697330556</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330556</v>
+        <v>739.7841675935385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330556</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M10" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N10" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U10" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>67.74542702828944</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1636.597933493125</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C11" t="n">
-        <v>1267.635416552713</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.034709923658</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653544</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X11" t="n">
-        <v>2182.266054653544</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y11" t="n">
-        <v>2023.197773557246</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5135,37 +5135,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>120.6003534763939</v>
+        <v>844.171363847817</v>
       </c>
       <c r="C13" t="n">
-        <v>120.6003534763939</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D13" t="n">
-        <v>120.6003534763939</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>120.6003534763939</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T13" t="n">
-        <v>699.1203903877109</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U13" t="n">
-        <v>410.0175235133545</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V13" t="n">
-        <v>410.0175235133545</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W13" t="n">
-        <v>120.6003534763939</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X13" t="n">
-        <v>120.6003534763939</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y13" t="n">
-        <v>120.6003534763939</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1250.836169983545</v>
+        <v>1519.109083729354</v>
       </c>
       <c r="C14" t="n">
-        <v>1250.836169983545</v>
+        <v>1150.146566788942</v>
       </c>
       <c r="D14" t="n">
-        <v>892.5704713767946</v>
+        <v>791.8808681821918</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1519.109083729354</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068672</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068672</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068672</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L16" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S16" t="n">
-        <v>729.2011216450114</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T16" t="n">
-        <v>507.4345062145375</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U16" t="n">
-        <v>218.331639340181</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="V16" t="n">
-        <v>218.331639340181</v>
+        <v>631.7841389438278</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068672</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068672</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3669689068672</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1808.800296392464</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C17" t="n">
-        <v>1439.837779452052</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D17" t="n">
-        <v>1081.572080845302</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E17" t="n">
-        <v>1081.572080845302</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G17" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.097597267229</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V17" t="n">
-        <v>2535.034709923658</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W17" t="n">
-        <v>2182.266054653544</v>
+        <v>2648.163688083632</v>
       </c>
       <c r="X17" t="n">
-        <v>1808.800296392464</v>
+        <v>2274.697929822552</v>
       </c>
       <c r="Y17" t="n">
-        <v>1808.800296392464</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158128</v>
@@ -5618,28 +5618,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K19" t="n">
         <v>176.6457242372931</v>
@@ -5703,22 +5703,22 @@
         <v>920.8870058181842</v>
       </c>
       <c r="T19" t="n">
-        <v>920.8870058181842</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U19" t="n">
-        <v>631.7841389438278</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="V19" t="n">
-        <v>377.0996507379409</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="W19" t="n">
-        <v>87.68248070098031</v>
+        <v>409.7032203507496</v>
       </c>
       <c r="X19" t="n">
-        <v>87.68248070098031</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1795.666214589422</v>
+        <v>1529.83239115168</v>
       </c>
       <c r="C20" t="n">
-        <v>1795.666214589422</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="D20" t="n">
-        <v>1437.400515982671</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E20" t="n">
-        <v>1051.612263384427</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F20" t="n">
-        <v>640.6263585948195</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G20" t="n">
-        <v>225.553908439816</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912088</v>
@@ -5773,31 +5773,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.266054653544</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y20" t="n">
-        <v>2182.266054653544</v>
+        <v>1529.83239115168</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5837,7 +5837,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>286.6419270710071</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C22" t="n">
-        <v>286.6419270710071</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D22" t="n">
-        <v>286.6419270710071</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K22" t="n">
         <v>176.6457242372932</v>
@@ -5937,25 +5937,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S22" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T22" t="n">
-        <v>507.4345062145372</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U22" t="n">
-        <v>507.4345062145372</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V22" t="n">
-        <v>507.4345062145372</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W22" t="n">
-        <v>507.4345062145372</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X22" t="n">
-        <v>507.4345062145372</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y22" t="n">
-        <v>286.6419270710071</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1032.06112435253</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C23" t="n">
-        <v>1032.06112435253</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D23" t="n">
-        <v>673.7954257457798</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="E23" t="n">
-        <v>673.7954257457798</v>
+        <v>971.2814123723965</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
@@ -5989,10 +5989,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,13 +6001,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6016,25 +6016,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416652</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>87.68248070098099</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="C25" t="n">
-        <v>87.68248070098099</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="D25" t="n">
-        <v>87.68248070098099</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="E25" t="n">
-        <v>87.68248070098099</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>195.4770214089575</v>
       </c>
       <c r="G25" t="n">
         <v>66.5121164321834</v>
@@ -6183,16 +6183,16 @@
         <v>631.7841389438285</v>
       </c>
       <c r="V25" t="n">
-        <v>377.0996507379416</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W25" t="n">
-        <v>87.68248070098099</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="X25" t="n">
-        <v>87.68248070098099</v>
+        <v>342.3669689068678</v>
       </c>
       <c r="Y25" t="n">
-        <v>87.68248070098099</v>
+        <v>342.3669689068678</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1363.124011696101</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C26" t="n">
-        <v>994.1614947556893</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D26" t="n">
-        <v>994.1614947556893</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E26" t="n">
-        <v>608.373242157445</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3119.628073993392</v>
+        <v>3287.942107032248</v>
       </c>
       <c r="U26" t="n">
-        <v>2866.097597267229</v>
+        <v>3034.411630306084</v>
       </c>
       <c r="V26" t="n">
-        <v>2866.097597267229</v>
+        <v>2703.348742962513</v>
       </c>
       <c r="W26" t="n">
-        <v>2513.328941997114</v>
+        <v>2350.580087692399</v>
       </c>
       <c r="X26" t="n">
-        <v>2139.863183736034</v>
+        <v>1977.114329431319</v>
       </c>
       <c r="Y26" t="n">
-        <v>1749.723851760223</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="27">
@@ -6281,31 +6281,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>228.8722539929444</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>81.98230649503407</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M28" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N28" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O28" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P28" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T28" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U28" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V28" t="n">
-        <v>848.0708164780106</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W28" t="n">
-        <v>848.0708164780106</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X28" t="n">
-        <v>848.0708164780106</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="Y28" t="n">
-        <v>848.0708164780106</v>
+        <v>376.7853475753375</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.812782134349</v>
+        <v>1892.184635123826</v>
       </c>
       <c r="C29" t="n">
-        <v>839.8502651939375</v>
+        <v>1523.222118183415</v>
       </c>
       <c r="D29" t="n">
-        <v>481.5845665871869</v>
+        <v>1164.956419576664</v>
       </c>
       <c r="E29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3296.379731775211</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3296.379731775211</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3042.849255049048</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2711.786367705477</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W29" t="n">
-        <v>2359.017712435363</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X29" t="n">
-        <v>1985.551954174283</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.412622198471</v>
+        <v>2268.308520734405</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L31" t="n">
         <v>332.3555681596505</v>
@@ -6648,25 +6648,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S31" t="n">
-        <v>831.0920506559569</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T31" t="n">
-        <v>831.0920506559569</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U31" t="n">
-        <v>541.9891837816004</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V31" t="n">
-        <v>287.3046955757135</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W31" t="n">
-        <v>287.3046955757135</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X31" t="n">
-        <v>287.3046955757135</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.51211643218342</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1311.909787855438</v>
+        <v>2089.358425227296</v>
       </c>
       <c r="C32" t="n">
-        <v>942.9472709150266</v>
+        <v>1720.395908286885</v>
       </c>
       <c r="D32" t="n">
-        <v>584.6815723082761</v>
+        <v>1362.130209680134</v>
       </c>
       <c r="E32" t="n">
-        <v>584.6815723082761</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F32" t="n">
-        <v>584.6815723082761</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G32" t="n">
         <v>364.0957168234162</v>
@@ -6700,10 +6700,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329465</v>
@@ -6715,7 +6715,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296687</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.97538618064</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="Y32" t="n">
-        <v>1698.50962791956</v>
+        <v>2475.958265291418</v>
       </c>
     </row>
     <row r="33">
@@ -6755,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>739.2385409879453</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="C34" t="n">
-        <v>570.3023580600384</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D34" t="n">
-        <v>420.1857186477026</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E34" t="n">
-        <v>272.2726250653095</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F34" t="n">
-        <v>125.3826775673992</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G34" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H34" t="n">
         <v>66.51211643218343</v>
@@ -6888,22 +6888,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T34" t="n">
-        <v>920.887005818185</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U34" t="n">
-        <v>920.887005818185</v>
+        <v>635.1166280454936</v>
       </c>
       <c r="V34" t="n">
-        <v>920.887005818185</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="W34" t="n">
-        <v>920.887005818185</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="X34" t="n">
-        <v>920.887005818185</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="Y34" t="n">
-        <v>920.887005818185</v>
+        <v>380.4321398396067</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1311.909787855438</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C35" t="n">
-        <v>942.9472709150266</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D35" t="n">
-        <v>584.6815723082761</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E35" t="n">
-        <v>198.8933197100319</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="F35" t="n">
-        <v>198.8933197100319</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="G35" t="n">
-        <v>198.8933197100319</v>
+        <v>349.2686829923061</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y35" t="n">
-        <v>1698.50962791956</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="36">
@@ -6992,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K37" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L37" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S37" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T37" t="n">
-        <v>848.0708164780106</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U37" t="n">
-        <v>848.0708164780106</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V37" t="n">
-        <v>848.0708164780106</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W37" t="n">
-        <v>848.0708164780106</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="X37" t="n">
-        <v>848.0708164780106</v>
+        <v>120.6003534763939</v>
       </c>
       <c r="Y37" t="n">
-        <v>848.0708164780106</v>
+        <v>120.6003534763939</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1517.887535471215</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C38" t="n">
-        <v>1148.925018530803</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D38" t="n">
-        <v>790.6593199240526</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E38" t="n">
-        <v>404.8710673258084</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8710673258084</v>
+        <v>684.4181157012742</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796416</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535336</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y38" t="n">
-        <v>1904.487375535336</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D40" t="n">
         <v>529.0179941377679</v>
@@ -7320,64 +7320,64 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K40" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L40" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N40" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O40" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P40" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R40" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S40" t="n">
-        <v>848.0708164780106</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T40" t="n">
-        <v>848.0708164780106</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U40" t="n">
-        <v>848.0708164780106</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V40" t="n">
-        <v>848.0708164780106</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W40" t="n">
-        <v>848.0708164780106</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="X40" t="n">
-        <v>848.0708164780106</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y40" t="n">
-        <v>848.0708164780106</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1311.909787855438</v>
+        <v>1133.32083113111</v>
       </c>
       <c r="C41" t="n">
-        <v>942.9472709150261</v>
+        <v>764.3583141906979</v>
       </c>
       <c r="D41" t="n">
-        <v>584.6815723082757</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="E41" t="n">
-        <v>584.6815723082757</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="F41" t="n">
-        <v>584.6815723082757</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>169.6091221532722</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7423,40 +7423,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520488</v>
+        <v>3220.887780771972</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794324</v>
+        <v>2967.357304045808</v>
       </c>
       <c r="V41" t="n">
-        <v>2424.744041450754</v>
+        <v>2636.294416702237</v>
       </c>
       <c r="W41" t="n">
-        <v>2071.975386180639</v>
+        <v>2283.525761432123</v>
       </c>
       <c r="X41" t="n">
-        <v>1698.50962791956</v>
+        <v>1910.060003171043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1698.50962791956</v>
+        <v>1519.920671195231</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>381.1049005553748</v>
+        <v>342.366968906868</v>
       </c>
       <c r="C43" t="n">
-        <v>381.1049005553748</v>
+        <v>342.366968906868</v>
       </c>
       <c r="D43" t="n">
-        <v>381.1049005553748</v>
+        <v>342.366968906868</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>194.4538753244748</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>194.4538753244748</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K43" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L43" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O43" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R43" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S43" t="n">
-        <v>823.6640951293789</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T43" t="n">
-        <v>601.8974796989049</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U43" t="n">
-        <v>601.8974796989049</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V43" t="n">
-        <v>601.8974796989049</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="W43" t="n">
-        <v>601.8974796989049</v>
+        <v>342.366968906868</v>
       </c>
       <c r="X43" t="n">
-        <v>601.8974796989049</v>
+        <v>342.366968906868</v>
       </c>
       <c r="Y43" t="n">
-        <v>381.1049005553748</v>
+        <v>342.366968906868</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1594.601034732593</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C44" t="n">
-        <v>1225.638517792182</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D44" t="n">
-        <v>867.3728191854311</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G44" t="n">
         <v>66.51211643218343</v>
@@ -7648,22 +7648,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3267.095534218452</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>3013.565057492288</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2682.502170148718</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2329.733514878603</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.50962791956</v>
+        <v>1956.267756617523</v>
       </c>
       <c r="Y44" t="n">
-        <v>1594.601034732593</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,46 +7733,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>701.1808689801002</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="C46" t="n">
-        <v>532.2446860521933</v>
+        <v>523.9612719922608</v>
       </c>
       <c r="D46" t="n">
         <v>382.1280466398576</v>
@@ -7806,52 +7806,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L46" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O46" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W46" t="n">
-        <v>920.8870058181855</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X46" t="n">
-        <v>920.8870058181855</v>
+        <v>692.8974549201677</v>
       </c>
       <c r="Y46" t="n">
-        <v>882.8293338103399</v>
+        <v>692.8974549201677</v>
       </c>
     </row>
   </sheetData>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>86.27197698880639</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>48.2713438801126</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>104.3348437827356</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038154</v>
+        <v>180.9061373814263</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510935</v>
+        <v>202.3948476287044</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121496</v>
+        <v>240.3890372235345</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22631,7 +22631,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0.598944475930125</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>61.59970664354543</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>77.29308816345809</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>4.37813005785722</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>48.87899782081595</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831058</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599460014</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715801</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860121018</v>
+        <v>99.11554475064317</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>61.70981873818782</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>21.7289579877603</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22743,28 +22743,28 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>7.935701265474393</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>74.1813952927055</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>207.923953009556</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
-        <v>199.921697069394</v>
+        <v>230.7235842710633</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971609</v>
+        <v>215.9514149651522</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400.4793217556702</v>
+        <v>240.093619043383</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637383</v>
+        <v>246.3871906880662</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>317.6289855973038</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>128.238775807139</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897339</v>
+        <v>320.9269077473047</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>100.3835127153711</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>116.0604645830649</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409152</v>
+        <v>60.22693649632168</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846324</v>
+        <v>74.81755514382759</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>28.78198192262309</v>
       </c>
       <c r="U6" t="n">
-        <v>38.3381812437712</v>
+        <v>225.8662952462544</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310554</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459988</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>38.99055850514907</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825422</v>
+        <v>59.3465326483775</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402859</v>
+        <v>17.84535296940157</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22980,28 +22980,28 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3.210952374594797</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>22.00204076308472</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.6860405515973</v>
+        <v>71.38234319379296</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>207.3414122568022</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>187.4234163286502</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2668378517016</v>
       </c>
       <c r="V7" t="n">
-        <v>199.921697069394</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23023,25 +23023,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>325.5716717148876</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543629</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>290.0354536060149</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637385</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
-        <v>25.91829388988728</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871032</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>57.03060314331827</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>7.884010625681753</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U9" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.27499998310577</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599460011</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>195.4676965162803</v>
       </c>
     </row>
     <row r="10">
@@ -23184,7 +23184,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.39952676377831</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23202,10 +23202,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402859</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,10 +23220,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q10" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R10" t="n">
         <v>132.8223696106904</v>
@@ -23238,7 +23238,7 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>199.9216970693935</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>255.1805474109864</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>228.7603403707194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>103.8834946312738</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>91.87369334916288</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.7750569628794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>99.44363811957533</v>
       </c>
     </row>
     <row r="15">
@@ -23594,7 +23594,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.75870671956349</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>136.2216706576734</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>107.4961710134985</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>38.75619027420856</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.595168441781425e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>104.5351158617514</v>
       </c>
       <c r="Y19" t="n">
-        <v>197.6259927259859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1563902997642</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>219.247474255854</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>20.94021709120599</v>
       </c>
       <c r="E22" t="n">
-        <v>73.92649813706497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>258.1642249476305</v>
+        <v>258.2608625746003</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>124.4623873968216</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>38.35055233202189</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>281.3552569271559</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24496,13 +24496,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>166.6308927084657</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>150.7103200968061</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>147.4609218293966</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>10.37119490900739</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>80.2539328525563</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>32.77294582383536</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>100.8720197208362</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>211.673993539276</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>192.5417287234421</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>107.7439527351647</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25128,13 +25128,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>222.8481134868176</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>163.5503731422505</v>
+        <v>14.67876349279902</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,19 +25314,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>91.87369334916288</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25365,16 +25365,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>147.4609218293965</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25399,19 +25399,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>75.94636426876474</v>
+        <v>135.3794805373</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>117.6809978846693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>118.1216260491473</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>192.5417287234426</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>100.2471097107925</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>39.36346695565975</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>93.5183437495234</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>145.9927856228079</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>283.3684314009565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>8.200579919333194</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>180.9075580643277</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>433263.0758337672</v>
+        <v>402256.5418769753</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>433263.0758337675</v>
+        <v>417888.8482179075</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>433263.0758337672</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587486</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587486</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587488</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>855506.5411587488</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.5411587489</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>855506.5411587489</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>855506.5411587491</v>
+        <v>855506.541158749</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>855506.541158749</v>
+        <v>855506.5411587491</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149975.680096304</v>
+        <v>139242.6491112606</v>
       </c>
       <c r="C2" t="n">
-        <v>149975.680096304</v>
+        <v>144653.8320754294</v>
       </c>
       <c r="D2" t="n">
-        <v>149975.6800963039</v>
+        <v>149975.6800963041</v>
       </c>
       <c r="E2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="F2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318746</v>
       </c>
       <c r="G2" t="n">
         <v>296136.8796318746</v>
       </c>
       <c r="H2" t="n">
+        <v>296136.8796318744</v>
+      </c>
+      <c r="I2" t="n">
         <v>296136.8796318746</v>
       </c>
-      <c r="I2" t="n">
-        <v>296136.8796318745</v>
-      </c>
       <c r="J2" t="n">
-        <v>296136.8796318744</v>
+        <v>296136.8796318747</v>
       </c>
       <c r="K2" t="n">
         <v>296136.8796318744</v>
@@ -26346,16 +26346,16 @@
         <v>296136.8796318745</v>
       </c>
       <c r="M2" t="n">
+        <v>296136.8796318746</v>
+      </c>
+      <c r="N2" t="n">
+        <v>296136.8796318747</v>
+      </c>
+      <c r="O2" t="n">
+        <v>296136.8796318745</v>
+      </c>
+      <c r="P2" t="n">
         <v>296136.8796318744</v>
-      </c>
-      <c r="N2" t="n">
-        <v>296136.8796318744</v>
-      </c>
-      <c r="O2" t="n">
-        <v>296136.8796318747</v>
-      </c>
-      <c r="P2" t="n">
-        <v>296136.8796318745</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340651</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679087</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336681</v>
+        <v>627134.643633667</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285445</v>
+        <v>38421.40650613417</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.967102136536</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004549</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678774</v>
+        <v>160456.4418678771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.8001180723337</v>
+        <v>107.1921479602628</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>122.1898065383437</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.8001180723341</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061231</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="G4" t="n">
         <v>584.6469890061228</v>
@@ -26456,10 +26456,10 @@
         <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161353</v>
+        <v>53719.1197790209</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161355</v>
+        <v>55335.34872138573</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161353</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139326</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
@@ -26493,25 +26493,25 @@
         <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
         <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="M5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="O5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510698.8849732615</v>
+        <v>-458518.1319426713</v>
       </c>
       <c r="C6" t="n">
-        <v>80658.01754758347</v>
+        <v>64626.86678985719</v>
       </c>
       <c r="D6" t="n">
-        <v>80658.01754758341</v>
+        <v>69896.83250792387</v>
       </c>
       <c r="E6" t="n">
-        <v>-409962.7469303626</v>
+        <v>-406296.1510900087</v>
       </c>
       <c r="F6" t="n">
-        <v>217171.8967033054</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="G6" t="n">
-        <v>217171.8967033059</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="H6" t="n">
-        <v>217171.8967033052</v>
+        <v>220838.4925436576</v>
       </c>
       <c r="I6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436582</v>
       </c>
       <c r="J6" t="n">
-        <v>168106.9519747609</v>
+        <v>182417.0860375241</v>
       </c>
       <c r="K6" t="n">
-        <v>217171.8967033053</v>
+        <v>215707.5254415215</v>
       </c>
       <c r="L6" t="n">
-        <v>217171.8967033055</v>
+        <v>215588.5853176536</v>
       </c>
       <c r="M6" t="n">
-        <v>56715.45483542798</v>
+        <v>60382.05067578114</v>
       </c>
       <c r="N6" t="n">
-        <v>217171.8967033053</v>
+        <v>220838.4925436583</v>
       </c>
       <c r="O6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.4925436581</v>
       </c>
       <c r="P6" t="n">
-        <v>217171.8967033055</v>
+        <v>220838.492543658</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>530.6136320241912</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663197</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663195</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697042</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803941</v>
+        <v>541.3067596803932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="E4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359721</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.846121088709</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961944</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.74316046799194</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359718</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663195</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961978</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="M4" t="n">
-        <v>643.875868235973</v>
+        <v>643.8758682359721</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>139.0785066724534</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405026</v>
+        <v>239.1543878358323</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>278.1878331720419</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.133120128740466</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>21.8458165184633</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>82.23711376326689</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>271.3408795762703</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>336.6223547162113</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>374.5572298056996</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>359.4067440913204</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>48.60847493367341</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>9.337733363561393</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>39.29544350367832</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>184.298132926742</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>289.1844294531842</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>296.8382808056841</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>197.1517779249663</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>70.86194882013636</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.19951633606084</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>4.600320073870109</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07508683472040445</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.956844254469853</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>8.507215280650154</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>28.77491630714795</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>67.64888879101861</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>80.12265843565288</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>43.0231971146172</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>16.67518578017007</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.088334541825734</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31597,46 +31597,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>1.237067698094463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606284</v>
+        <v>100.6000080559581</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>146.8461210887086</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>2.402291260945162</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>5.824074272394228</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>13.6224856581357</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>51.25102853128971</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>100.8559397462241</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>144.2109965784269</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>129.3085326696337</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>75.5123451577706</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>8.047286428072653</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>46.45669395238301</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>147.0503955311659</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>165.4965687223508</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>128.9527904274075</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>63.17737051063609</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646066</v>
+        <v>7.371968606034244</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061144</v>
+        <v>11.06390223261016</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520815</v>
+        <v>18.73772222104904</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400438</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,16 +35336,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.15921574646066</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M10" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N10" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O10" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K16" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L16" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M16" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N16" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O16" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P16" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K43" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L43" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M43" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N43" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O43" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P43" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K46" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M46" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N46" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P46" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
